--- a/dataset/高等教育支出占GDP比例.xlsx
+++ b/dataset/高等教育支出占GDP比例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>country</t>
   </si>
@@ -28,10 +28,7 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>India</t>
+    <t>Mexico</t>
   </si>
 </sst>
 </file>
@@ -39,11 +36,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -63,6 +60,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -76,30 +80,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,40 +117,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,21 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -191,8 +173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +188,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,49 +212,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,49 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,79 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,15 +421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -450,11 +438,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,15 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -521,6 +498,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,137 +538,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +680,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1138,18 +1138,14 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>2.336</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.314</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1159,24 +1155,12 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.227</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.318</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.255</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.084</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
